--- a/data/final/price decline since release date - Google.xlsx
+++ b/data/final/price decline since release date - Google.xlsx
@@ -6224,11 +6224,14 @@
       <c r="F206">
         <v>0.7557653791130179</v>
       </c>
+      <c r="G206">
+        <v>0.7940282495977105</v>
+      </c>
       <c r="H206">
         <v>0.8645883918177278</v>
       </c>
       <c r="I206">
-        <v>0.7610075409768654</v>
+        <v>0.7657247850655576</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6250,11 +6253,14 @@
       <c r="F207">
         <v>0.7583261802575102</v>
       </c>
+      <c r="G207">
+        <v>0.794564634364383</v>
+      </c>
       <c r="H207">
         <v>0.8512838849160148</v>
       </c>
       <c r="I207">
-        <v>0.7586439225997691</v>
+        <v>0.7637754528518567</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -6276,11 +6282,14 @@
       <c r="F208">
         <v>0.7512344165133858</v>
       </c>
+      <c r="G208">
+        <v>0.7951010191310556</v>
+      </c>
       <c r="H208">
         <v>0.8428022617661728</v>
       </c>
       <c r="I208">
-        <v>0.7544042271600798</v>
+        <v>0.760218054584505</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6302,11 +6311,14 @@
       <c r="F209">
         <v>0.7441426527692616</v>
       </c>
+      <c r="G209">
+        <v>0.7956374038977281</v>
+      </c>
       <c r="H209">
         <v>0.8692449692333273</v>
       </c>
       <c r="I209">
-        <v>0.7564729435651003</v>
+        <v>0.7620678664697614</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -15922,8 +15934,11 @@
       <c r="F579">
         <v>0.6138197424892707</v>
       </c>
+      <c r="H579">
+        <v>0.428208880758356</v>
+      </c>
       <c r="I579">
-        <v>0.6571144455879998</v>
+        <v>0.6189635181163925</v>
       </c>
     </row>
     <row r="580" spans="1:9">
@@ -15945,8 +15960,11 @@
       <c r="F580">
         <v>0.6138197424892707</v>
       </c>
+      <c r="H580">
+        <v>0.4236088474970887</v>
+      </c>
       <c r="I580">
-        <v>0.6543159200054809</v>
+        <v>0.6158647412540822</v>
       </c>
     </row>
     <row r="581" spans="1:9">
@@ -15968,8 +15986,11 @@
       <c r="F581">
         <v>0.6138197424892707</v>
       </c>
+      <c r="H581">
+        <v>0.4190088142358214</v>
+      </c>
       <c r="I581">
-        <v>0.651043153603474</v>
+        <v>0.6123707637088652</v>
       </c>
     </row>
     <row r="582" spans="1:9">
@@ -15991,8 +16012,11 @@
       <c r="F582">
         <v>0.6138197424892707</v>
       </c>
+      <c r="H582">
+        <v>0.4150706801929144</v>
+      </c>
       <c r="I582">
-        <v>0.6522585668598452</v>
+        <v>0.6127272524153567</v>
       </c>
     </row>
     <row r="583" spans="1:9">
@@ -24429,8 +24453,11 @@
       <c r="E949">
         <v>0.6730707610146867</v>
       </c>
+      <c r="F949">
+        <v>0.9220028612303292</v>
+      </c>
       <c r="I949">
-        <v>0.6933293658269142</v>
+        <v>0.7390640649075972</v>
       </c>
     </row>
     <row r="950" spans="1:9">
@@ -24443,11 +24470,17 @@
       <c r="C950">
         <v>0.6900644468313647</v>
       </c>
+      <c r="D950">
+        <v>0.6357461652360413</v>
+      </c>
       <c r="E950">
         <v>0.6730707610146867</v>
       </c>
+      <c r="F950">
+        <v>0.9220028612303292</v>
+      </c>
       <c r="I950">
-        <v>0.7125237660238719</v>
+        <v>0.7390640649075972</v>
       </c>
     </row>
     <row r="951" spans="1:9">
@@ -24460,11 +24493,17 @@
       <c r="C951">
         <v>0.6900644468313647</v>
       </c>
+      <c r="D951">
+        <v>0.6357461652360413</v>
+      </c>
       <c r="E951">
         <v>0.6733110814419231</v>
       </c>
+      <c r="F951">
+        <v>0.9220028612303292</v>
+      </c>
       <c r="I951">
-        <v>0.7126038728329508</v>
+        <v>0.7391121289930445</v>
       </c>
     </row>
     <row r="952" spans="1:9">
@@ -24477,11 +24516,17 @@
       <c r="C952">
         <v>0.6900644468313647</v>
       </c>
+      <c r="D952">
+        <v>0.6357461652360413</v>
+      </c>
       <c r="E952">
         <v>0.6735514018691593</v>
       </c>
+      <c r="F952">
+        <v>0.9220028612303292</v>
+      </c>
       <c r="I952">
-        <v>0.7126839796420295</v>
+        <v>0.7391601930784918</v>
       </c>
     </row>
     <row r="953" spans="1:9">
@@ -24494,11 +24539,14 @@
       <c r="C953">
         <v>0.6900644468313647</v>
       </c>
+      <c r="D953">
+        <v>0.6357461652360413</v>
+      </c>
       <c r="E953">
         <v>0.6737917222963956</v>
       </c>
       <c r="I953">
-        <v>0.7127640864511081</v>
+        <v>0.6935096061473415</v>
       </c>
     </row>
     <row r="954" spans="1:9">

--- a/data/final/price decline since release date - Google.xlsx
+++ b/data/final/price decline since release date - Google.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J596"/>
+  <dimension ref="A1:J616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7388,8 +7388,17 @@
       <c r="B224">
         <v>1.030970072239421</v>
       </c>
+      <c r="C224">
+        <v>0.935486405783434</v>
+      </c>
+      <c r="D224">
+        <v>0.7879492222420871</v>
+      </c>
       <c r="E224">
         <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0.7345200060855015</v>
       </c>
       <c r="G224">
         <v>0.8506569100282718</v>
@@ -7401,7 +7410,7 @@
         <v>0.8122408122408112</v>
       </c>
       <c r="J224">
-        <v>0.9387735589017007</v>
+        <v>0.8939779285774409</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -7411,8 +7420,17 @@
       <c r="B225">
         <v>1.030970072239421</v>
       </c>
+      <c r="C225">
+        <v>0.9370187018701854</v>
+      </c>
+      <c r="D225">
+        <v>0.7877704273198629</v>
+      </c>
       <c r="E225">
         <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0.7343678685531723</v>
       </c>
       <c r="G225">
         <v>0.8620655246964907</v>
@@ -7424,7 +7442,7 @@
         <v>0.8132418132418122</v>
       </c>
       <c r="J225">
-        <v>0.9412554820355445</v>
+        <v>0.8956793009901181</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -7434,8 +7452,17 @@
       <c r="B226">
         <v>1.030970072239421</v>
       </c>
+      <c r="C226">
+        <v>0.938550997956937</v>
+      </c>
+      <c r="D226">
+        <v>0.7942070445199344</v>
+      </c>
       <c r="E226">
         <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0.7355849688118058</v>
       </c>
       <c r="G226">
         <v>0.8734741393647095</v>
@@ -7447,7 +7474,7 @@
         <v>0.8142428142428131</v>
       </c>
       <c r="J226">
-        <v>0.9437374051693886</v>
+        <v>0.8983787546419526</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -7457,8 +7484,17 @@
       <c r="B227">
         <v>1.030970072239421</v>
       </c>
+      <c r="C227">
+        <v>0.9385117083136868</v>
+      </c>
+      <c r="D227">
+        <v>0.8006436617200059</v>
+      </c>
       <c r="E227">
         <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0.7444089456869011</v>
       </c>
       <c r="G227">
         <v>0.8784633294528518</v>
@@ -7470,7 +7506,7 @@
         <v>0.8153868153868142</v>
       </c>
       <c r="J227">
-        <v>0.9449640434158173</v>
+        <v>0.9010480665999601</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -7480,8 +7516,17 @@
       <c r="B228">
         <v>1.030970072239421</v>
       </c>
+      <c r="C228">
+        <v>0.9384724186704368</v>
+      </c>
+      <c r="D228">
+        <v>0.7995708921866607</v>
+      </c>
       <c r="E228">
         <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0.7532329225619961</v>
       </c>
       <c r="G228">
         <v>0.8829536005321799</v>
@@ -7493,7 +7538,7 @@
         <v>0.8165308165308155</v>
       </c>
       <c r="J228">
-        <v>0.9460908978604833</v>
+        <v>0.9027163403401888</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -7503,8 +7548,17 @@
       <c r="B229">
         <v>1.030970072239421</v>
       </c>
+      <c r="C229">
+        <v>0.9409398082665392</v>
+      </c>
+      <c r="D229">
+        <v>0.7983193277310912</v>
+      </c>
       <c r="E229">
         <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0.7511029971093869</v>
       </c>
       <c r="G229">
         <v>0.8874438716115078</v>
@@ -7516,7 +7570,7 @@
         <v>0.8176748176748168</v>
       </c>
       <c r="J229">
-        <v>0.947217752305149</v>
+        <v>0.9033063618290953</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -7526,8 +7580,17 @@
       <c r="B230">
         <v>1.030970072239421</v>
       </c>
+      <c r="C230">
+        <v>0.9434071978626418</v>
+      </c>
+      <c r="D230">
+        <v>0.7967101734310733</v>
+      </c>
       <c r="E230">
         <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0.7526243724326792</v>
       </c>
       <c r="G230">
         <v>0.8919341426908359</v>
@@ -7539,7 +7602,7 @@
         <v>0.818818818818818</v>
       </c>
       <c r="J230">
-        <v>0.948344606749815</v>
+        <v>0.9043080971844337</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -7549,8 +7612,17 @@
       <c r="B231">
         <v>1.030970072239421</v>
       </c>
+      <c r="C231">
+        <v>0.9227235580700912</v>
+      </c>
+      <c r="D231">
+        <v>0.7951010191310556</v>
+      </c>
       <c r="E231">
         <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0.7514072721740453</v>
       </c>
       <c r="G231">
         <v>0.8964244137701639</v>
@@ -7562,7 +7634,7 @@
         <v>0.818818818818818</v>
       </c>
       <c r="J231">
-        <v>0.9492426609656806</v>
+        <v>0.9019306442754493</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -7572,8 +7644,17 @@
       <c r="B232">
         <v>1.030970072239421</v>
       </c>
+      <c r="C232">
+        <v>0.9143847241867028</v>
+      </c>
+      <c r="D232">
+        <v>0.7951010191310556</v>
+      </c>
       <c r="E232">
         <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0.7494294842537654</v>
       </c>
       <c r="G232">
         <v>0.8900049891900874</v>
@@ -7585,7 +7666,7 @@
         <v>0.818818818818818</v>
       </c>
       <c r="J232">
-        <v>0.9479587760496653</v>
+        <v>0.8998386384774814</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -7595,8 +7676,17 @@
       <c r="B233">
         <v>1.030970072239421</v>
       </c>
+      <c r="C233">
+        <v>0.9060458903033144</v>
+      </c>
+      <c r="D233">
+        <v>0.7951010191310556</v>
+      </c>
       <c r="E233">
         <v>1</v>
+      </c>
+      <c r="F233">
+        <v>0.745017495816218</v>
       </c>
       <c r="G233">
         <v>0.8835855646100109</v>
@@ -7608,7 +7698,7 @@
         <v>0.818818818818818</v>
       </c>
       <c r="J233">
-        <v>0.9466748911336499</v>
+        <v>0.8974423576148548</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -7618,8 +7708,17 @@
       <c r="B234">
         <v>1.030970072239421</v>
       </c>
+      <c r="C234">
+        <v>0.8977070564199259</v>
+      </c>
+      <c r="D234">
+        <v>0.7959949937421766</v>
+      </c>
       <c r="E234">
         <v>1</v>
+      </c>
+      <c r="F234">
+        <v>0.7406055073786705</v>
       </c>
       <c r="G234">
         <v>0.8777648428405115</v>
@@ -7631,7 +7730,7 @@
         <v>0.8304004004003994</v>
       </c>
       <c r="J234">
-        <v>0.9478270630960663</v>
+        <v>0.896680359127638</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -7641,8 +7740,17 @@
       <c r="B235">
         <v>1.030970072239421</v>
       </c>
+      <c r="C235">
+        <v>0.8893682225365376</v>
+      </c>
+      <c r="D235">
+        <v>0.7968889683532977</v>
+      </c>
       <c r="E235">
         <v>1</v>
+      </c>
+      <c r="F235">
+        <v>0.7404533698463414</v>
       </c>
       <c r="G235">
         <v>0.8719441210710122</v>
@@ -7654,7 +7762,7 @@
         <v>0.8419819819819809</v>
       </c>
       <c r="J235">
-        <v>0.9489792350584827</v>
+        <v>0.8964508420035737</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -7664,8 +7772,17 @@
       <c r="B236">
         <v>1.030970072239421</v>
       </c>
+      <c r="C236">
+        <v>0.8785227094137966</v>
+      </c>
+      <c r="D236">
+        <v>0.7979617378866429</v>
+      </c>
       <c r="E236">
         <v>1</v>
+      </c>
+      <c r="F236">
+        <v>0.7421268827019628</v>
       </c>
       <c r="G236">
         <v>0.8662897056377842</v>
@@ -7677,7 +7794,7 @@
         <v>0.8535635635635624</v>
       </c>
       <c r="J236">
-        <v>0.9501646682881535</v>
+        <v>0.8961793339303962</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -7687,8 +7804,17 @@
       <c r="B237">
         <v>1.030970072239421</v>
       </c>
+      <c r="C237">
+        <v>0.8676771962910558</v>
+      </c>
+      <c r="D237">
+        <v>0.8058108349722856</v>
+      </c>
       <c r="E237">
         <v>1</v>
+      </c>
+      <c r="F237">
+        <v>0.7427354328312797</v>
       </c>
       <c r="G237">
         <v>0.8606352902045563</v>
@@ -7700,7 +7826,7 @@
         <v>0.8651451451451441</v>
       </c>
       <c r="J237">
-        <v>0.9513501015178243</v>
+        <v>0.8966217464604678</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -7710,8 +7836,17 @@
       <c r="B238">
         <v>1.030970072239421</v>
       </c>
+      <c r="C238">
+        <v>0.8800220022002181</v>
+      </c>
+      <c r="D238">
+        <v>0.8136599320579283</v>
+      </c>
       <c r="E238">
         <v>1</v>
+      </c>
+      <c r="F238">
+        <v>0.744256808154572</v>
       </c>
       <c r="G238">
         <v>0.8549808747713283</v>
@@ -7723,7 +7858,7 @@
         <v>0.8767267267267255</v>
       </c>
       <c r="J238">
-        <v>0.952535534747495</v>
+        <v>0.9000770520187742</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -7733,8 +7868,17 @@
       <c r="B239">
         <v>1.030970072239421</v>
       </c>
+      <c r="C239">
+        <v>0.8800220022002181</v>
+      </c>
+      <c r="D239">
+        <v>0.8215090291435709</v>
+      </c>
       <c r="E239">
         <v>1</v>
+      </c>
+      <c r="F239">
+        <v>0.7465388711395103</v>
       </c>
       <c r="G239">
         <v>0.8498253783469146</v>
@@ -7746,7 +7890,7 @@
         <v>0.888309738309737</v>
       </c>
       <c r="J239">
-        <v>0.9538210377792146</v>
+        <v>0.9021468864224215</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -7756,8 +7900,17 @@
       <c r="B240">
         <v>1.030970072239421</v>
       </c>
+      <c r="C240">
+        <v>0.8783592644978765</v>
+      </c>
+      <c r="D240">
+        <v>0.8254425174325036</v>
+      </c>
       <c r="E240">
         <v>1</v>
+      </c>
+      <c r="F240">
+        <v>0.7515594097063748</v>
       </c>
       <c r="G240">
         <v>0.8446698819225009</v>
@@ -7769,7 +7922,7 @@
         <v>0.8998913198913184</v>
       </c>
       <c r="J240">
-        <v>0.9551062548106479</v>
+        <v>0.9038615582112494</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -7779,8 +7932,17 @@
       <c r="B241">
         <v>1.030970072239421</v>
       </c>
+      <c r="C241">
+        <v>0.8766965267955349</v>
+      </c>
+      <c r="D241">
+        <v>0.8284820311103152</v>
+      </c>
       <c r="E241">
         <v>1</v>
+      </c>
+      <c r="F241">
+        <v>0.7544500228206301</v>
       </c>
       <c r="G241">
         <v>0.8453351072675865</v>
@@ -7792,7 +7954,7 @@
         <v>0.8998913198913184</v>
       </c>
       <c r="J241">
-        <v>0.955239299879665</v>
+        <v>0.9044781350156007</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -7802,8 +7964,17 @@
       <c r="B242">
         <v>1.030970072239421</v>
       </c>
+      <c r="C242">
+        <v>0.8750337890931933</v>
+      </c>
+      <c r="D242">
+        <v>0.8315215447881267</v>
+      </c>
       <c r="E242">
         <v>1</v>
+      </c>
+      <c r="F242">
+        <v>0.7552107104822762</v>
       </c>
       <c r="G242">
         <v>0.8411774488608013</v>
@@ -7815,7 +7986,7 @@
         <v>0.899306449306448</v>
       </c>
       <c r="J242">
-        <v>0.954290794081334</v>
+        <v>0.9041525018462833</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -7825,8 +7996,17 @@
       <c r="B243">
         <v>1.030970072239421</v>
       </c>
+      <c r="C243">
+        <v>0.8733710513908516</v>
+      </c>
+      <c r="D243">
+        <v>0.8338458787770414</v>
+      </c>
       <c r="E243">
         <v>1</v>
+      </c>
+      <c r="F243">
+        <v>0.7555149855469345</v>
       </c>
       <c r="G243">
         <v>0.8368534841177446</v>
@@ -7838,7 +8018,7 @@
         <v>0.8987215787215774</v>
       </c>
       <c r="J243">
-        <v>0.9533090270157485</v>
+        <v>0.9036596313491962</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -15958,6 +16138,466 @@
       </c>
       <c r="J596">
         <v>0.4647703431745123</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E597">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="G597">
+        <v>0.3985930483951432</v>
+      </c>
+      <c r="H597">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="I597">
+        <v>0.3774202774202764</v>
+      </c>
+      <c r="J597">
+        <v>0.4639260197225054</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E598">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="G598">
+        <v>0.3968418426742053</v>
+      </c>
+      <c r="H598">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="I598">
+        <v>0.3745602745602735</v>
+      </c>
+      <c r="J598">
+        <v>0.4630037780063173</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E599">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="G599">
+        <v>0.3964260768335267</v>
+      </c>
+      <c r="H599">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="I599">
+        <v>0.3717131417131407</v>
+      </c>
+      <c r="J599">
+        <v>0.462351198268755</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E600">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="G600">
+        <v>0.3964260768335267</v>
+      </c>
+      <c r="H600">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="I600">
+        <v>0.3688660088660079</v>
+      </c>
+      <c r="J600">
+        <v>0.4617817716993285</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E601">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="G601">
+        <v>0.3964260768335267</v>
+      </c>
+      <c r="H601">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="I601">
+        <v>0.3660188760188751</v>
+      </c>
+      <c r="J601">
+        <v>0.4612123451299019</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E602">
+        <v>0.5363918588174682</v>
+      </c>
+      <c r="G602">
+        <v>0.3964260768335267</v>
+      </c>
+      <c r="H602">
+        <v>0.5363918588174682</v>
+      </c>
+      <c r="I602">
+        <v>0.3631717431717422</v>
+      </c>
+      <c r="J602">
+        <v>0.459149166145172</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E603">
+        <v>0.5326574777792098</v>
+      </c>
+      <c r="G603">
+        <v>0.3961766173291196</v>
+      </c>
+      <c r="H603">
+        <v>0.5326574777792098</v>
+      </c>
+      <c r="I603">
+        <v>0.3603246103246094</v>
+      </c>
+      <c r="J603">
+        <v>0.4570360952595606</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E604">
+        <v>0.5289230967409514</v>
+      </c>
+      <c r="G604">
+        <v>0.3950374189256604</v>
+      </c>
+      <c r="H604">
+        <v>0.5289230967409514</v>
+      </c>
+      <c r="I604">
+        <v>0.3603374803374794</v>
+      </c>
+      <c r="J604">
+        <v>0.4553170771661394</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E605">
+        <v>0.525188715702693</v>
+      </c>
+      <c r="G605">
+        <v>0.3934658240478955</v>
+      </c>
+      <c r="H605">
+        <v>0.525188715702693</v>
+      </c>
+      <c r="I605">
+        <v>0.3603503503503495</v>
+      </c>
+      <c r="J605">
+        <v>0.4535115797778571</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E606">
+        <v>0.525188715702693</v>
+      </c>
+      <c r="G606">
+        <v>0.3918942291701307</v>
+      </c>
+      <c r="H606">
+        <v>0.525188715702693</v>
+      </c>
+      <c r="I606">
+        <v>0.3603503503503495</v>
+      </c>
+      <c r="J606">
+        <v>0.4531972608023042</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E607">
+        <v>0.525188715702693</v>
+      </c>
+      <c r="G607">
+        <v>0.3903226342923659</v>
+      </c>
+      <c r="H607">
+        <v>0.525188715702693</v>
+      </c>
+      <c r="I607">
+        <v>0.3603503503503495</v>
+      </c>
+      <c r="J607">
+        <v>0.4528829418267512</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E608">
+        <v>0.525188715702693</v>
+      </c>
+      <c r="G608">
+        <v>0.388751039414601</v>
+      </c>
+      <c r="H608">
+        <v>0.525188715702693</v>
+      </c>
+      <c r="I608">
+        <v>0.3725067925067916</v>
+      </c>
+      <c r="J608">
+        <v>0.4549999112824866</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E609">
+        <v>0.5289230967409514</v>
+      </c>
+      <c r="G609">
+        <v>0.3871794445368361</v>
+      </c>
+      <c r="H609">
+        <v>0.5289230967409514</v>
+      </c>
+      <c r="I609">
+        <v>0.3846632346632337</v>
+      </c>
+      <c r="J609">
+        <v>0.4586106331535253</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E610">
+        <v>0.5326574777792098</v>
+      </c>
+      <c r="G610">
+        <v>0.3858573091634784</v>
+      </c>
+      <c r="H610">
+        <v>0.5326574777792098</v>
+      </c>
+      <c r="I610">
+        <v>0.3968196768196758</v>
+      </c>
+      <c r="J610">
+        <v>0.4622712469254456</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E611">
+        <v>0.5363918588174682</v>
+      </c>
+      <c r="G611">
+        <v>0.3854249126891728</v>
+      </c>
+      <c r="H611">
+        <v>0.5363918588174682</v>
+      </c>
+      <c r="I611">
+        <v>0.4089761189761179</v>
+      </c>
+      <c r="J611">
+        <v>0.4661098084771763</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E612">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="G612">
+        <v>0.3854249126891728</v>
+      </c>
+      <c r="H612">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="I612">
+        <v>0.42113256113256</v>
+      </c>
+      <c r="J612">
+        <v>0.4700348493237681</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E613">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="G613">
+        <v>0.3854249126891728</v>
+      </c>
+      <c r="H613">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="I613">
+        <v>0.4267109967109956</v>
+      </c>
+      <c r="J613">
+        <v>0.4711505364394551</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E614">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="G614">
+        <v>0.3854249126891728</v>
+      </c>
+      <c r="H614">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="I614">
+        <v>0.4324310024310014</v>
+      </c>
+      <c r="J614">
+        <v>0.4722945375834564</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E615">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="G615">
+        <v>0.3858573091634785</v>
+      </c>
+      <c r="H615">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="I615">
+        <v>0.4259945659945649</v>
+      </c>
+      <c r="J615">
+        <v>0.4710937295910302</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616">
+        <v>0.4633642930856544</v>
+      </c>
+      <c r="E616">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="G616">
+        <v>0.3839980043239641</v>
+      </c>
+      <c r="H616">
+        <v>0.5401262398557266</v>
+      </c>
+      <c r="I616">
+        <v>0.4166852566852556</v>
+      </c>
+      <c r="J616">
+        <v>0.4688600067612654</v>
       </c>
     </row>
   </sheetData>
